--- a/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E689E60C-E8C6-4CD8-A92F-0DD899DB1180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B30B03C-15CA-45CA-A820-D9BA2CDDDE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ED3535AE-C350-4126-9023-ED7DE4893B3E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CAA13962-C434-4897-8F6E-F6F601F73240}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>69,87%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>73,71%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>30,13%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>43,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>55,37%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
     <t>60,21%</t>
   </si>
   <si>
@@ -419,6 +419,108 @@
     <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
   </si>
   <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
     <t>88,41%</t>
   </si>
   <si>
@@ -473,58 +575,58 @@
     <t>19,79%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>84,23%</t>
@@ -581,108 +683,6 @@
     <t>23,86%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
     <t>86,22%</t>
   </si>
   <si>
@@ -734,6 +734,87 @@
     <t>Menores según si consumen más de dos medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
     <t>87,23%</t>
   </si>
   <si>
@@ -782,52 +863,58 @@
     <t>20,54%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>93,32%</t>
@@ -878,93 +965,6 @@
     <t>18,44%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
     <t>86,21%</t>
   </si>
   <si>
@@ -1016,6 +1016,102 @@
     <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
     <t>65,37%</t>
   </si>
   <si>
@@ -1070,58 +1166,58 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
   </si>
   <si>
     <t>61,89%</t>
@@ -1176,102 +1272,6 @@
   </si>
   <si>
     <t>47,23%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
   </si>
   <si>
     <t>65,87%</t>
@@ -1711,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46E2F7-6250-4292-B80D-F88489A80FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE54525-1BA5-422A-ABD4-A4111614F44E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1829,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>28859</v>
+        <v>2167</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1844,10 +1844,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>25388</v>
+        <v>5458</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1859,10 +1859,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>54246</v>
+        <v>7626</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1880,10 +1880,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>12447</v>
+        <v>2620</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1895,10 +1895,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>16259</v>
+        <v>4236</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1910,10 +1910,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>28706</v>
+        <v>6855</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1931,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1946,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1961,10 +1961,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2139,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>21109</v>
+        <v>28859</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2154,10 +2154,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>14334</v>
+        <v>25388</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2169,10 +2169,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>35444</v>
+        <v>54246</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2190,10 +2190,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>17708</v>
+        <v>12447</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2205,10 +2205,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>11343</v>
+        <v>16259</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2220,10 +2220,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>29050</v>
+        <v>28706</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2241,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2256,10 +2256,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2271,10 +2271,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2294,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>2167</v>
+        <v>18517</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2309,10 +2309,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>5458</v>
+        <v>17115</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2324,10 +2324,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>7626</v>
+        <v>35631</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2345,10 +2345,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>2620</v>
+        <v>16606</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2360,10 +2360,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>4236</v>
+        <v>8049</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2375,10 +2375,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>6855</v>
+        <v>24655</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2396,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2411,10 +2411,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2426,10 +2426,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2449,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>18517</v>
+        <v>21109</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2464,10 +2464,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>17115</v>
+        <v>14334</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2479,10 +2479,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>35631</v>
+        <v>35444</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2503,7 +2503,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>16606</v>
+        <v>17708</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2515,10 +2515,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>8049</v>
+        <v>11343</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2530,10 +2530,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>24655</v>
+        <v>29050</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2551,10 +2551,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2566,10 +2566,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2581,10 +2581,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2769,7 +2769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D67311-87A9-4558-992C-0EE53C20971D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C348754D-65E6-4959-9EB4-585D9238D8EB}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2887,10 +2887,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>35645</v>
+        <v>1915</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>126</v>
@@ -2902,10 +2902,10 @@
         <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>36097</v>
+        <v>2416</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>129</v>
@@ -2917,10 +2917,10 @@
         <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>71743</v>
+        <v>4330</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>132</v>
@@ -2938,49 +2938,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>4675</v>
+        <v>737</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3818</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5407</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4555</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="7">
-        <v>14</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10081</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,10 +2989,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3004,10 +3004,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>41504</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3019,10 +3019,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>81824</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3048,13 +3048,13 @@
         <v>26098</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3063,13 +3063,13 @@
         <v>20625</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -3078,13 +3078,13 @@
         <v>46724</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3099,13 @@
         <v>5674</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3114,13 +3114,13 @@
         <v>4587</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -3129,13 +3129,13 @@
         <v>10261</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,49 +3197,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>39779</v>
+        <v>35645</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>55</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36097</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="7">
-        <v>47</v>
-      </c>
-      <c r="I10" s="7">
-        <v>35103</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>105</v>
+      </c>
+      <c r="N10" s="7">
+        <v>71743</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="7">
-        <v>100</v>
-      </c>
-      <c r="N10" s="7">
-        <v>74881</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3248,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>7450</v>
+        <v>4675</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5407</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6683</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>14</v>
+      </c>
+      <c r="N11" s="7">
+        <v>10081</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14134</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,25 +3299,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7">
+        <v>40320</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>63</v>
       </c>
-      <c r="D12" s="7">
-        <v>47229</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>56</v>
-      </c>
       <c r="I12" s="7">
-        <v>41786</v>
+        <v>41504</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3332,7 +3332,7 @@
         <v>119</v>
       </c>
       <c r="N12" s="7">
-        <v>89015</v>
+        <v>81824</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3352,49 +3352,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>1915</v>
+        <v>33292</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>26989</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2416</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>95</v>
+      </c>
+      <c r="N13" s="7">
+        <v>60281</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4330</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,25 +3403,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>737</v>
+        <v>3309</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>3818</v>
+        <v>5975</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>190</v>
@@ -3433,10 +3433,10 @@
         <v>192</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>4555</v>
+        <v>9284</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>193</v>
@@ -3454,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>36601</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3469,10 +3469,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3484,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>69565</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3507,10 +3507,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>33292</v>
+        <v>39779</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>196</v>
@@ -3522,10 +3522,10 @@
         <v>198</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>26989</v>
+        <v>35103</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>199</v>
@@ -3537,10 +3537,10 @@
         <v>201</v>
       </c>
       <c r="M16" s="7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
-        <v>60281</v>
+        <v>74881</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>202</v>
@@ -3558,10 +3558,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>3309</v>
+        <v>7450</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>205</v>
@@ -3573,10 +3573,10 @@
         <v>207</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>5975</v>
+        <v>6683</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>208</v>
@@ -3588,10 +3588,10 @@
         <v>210</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>9284</v>
+        <v>14134</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>211</v>
@@ -3609,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>36601</v>
+        <v>47229</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3624,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I18" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3639,10 +3639,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N18" s="7">
-        <v>69565</v>
+        <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,7 +3698,7 @@
         <v>257959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>220</v>
@@ -3749,7 +3749,7 @@
         <v>48315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>228</v>
@@ -3827,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB605D31-8D55-4D1A-8C51-63D52D81C9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8B2A4-20E7-424C-9F1E-BBDFCD1AA6FF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3945,49 +3945,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>35893</v>
+        <v>2534</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>35909</v>
+        <v>6479</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9013</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M4" s="7">
-        <v>111</v>
-      </c>
-      <c r="N4" s="7">
-        <v>71802</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5254</v>
+        <v>976</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>976</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6790</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="7">
-        <v>19</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12044</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4062,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4106,13 +4106,13 @@
         <v>18460</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4121,13 +4121,13 @@
         <v>16089</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -4136,13 +4136,13 @@
         <v>34548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4157,13 @@
         <v>2207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4172,13 +4172,13 @@
         <v>1791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -4187,13 +4187,13 @@
         <v>3999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4255,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>28131</v>
+        <v>35893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="7">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35909</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M10" s="7">
+        <v>111</v>
+      </c>
+      <c r="N10" s="7">
+        <v>71802</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28406</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M10" s="7">
-        <v>77</v>
-      </c>
-      <c r="N10" s="7">
-        <v>56537</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4306,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>2015</v>
+        <v>5254</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6790</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="7">
+        <v>19</v>
+      </c>
+      <c r="N11" s="7">
+        <v>12044</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4382</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6397</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,10 +4357,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4372,10 +4372,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4387,10 +4387,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N12" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4410,49 +4410,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>2534</v>
+        <v>21261</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="7">
+        <v>41</v>
+      </c>
+      <c r="I13" s="7">
+        <v>24589</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>74</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45849</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6479</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9013</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,49 +4461,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>976</v>
+        <v>6545</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>285</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>976</v>
+        <v>9572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4527,10 +4527,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4542,10 +4542,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4565,49 +4565,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>21261</v>
+        <v>28131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>24589</v>
+        <v>28406</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N16" s="7">
-        <v>45849</v>
+        <v>56537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,40 +4616,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>6545</v>
+        <v>2015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>3026</v>
+        <v>4382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>9572</v>
+        <v>6397</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>305</v>
@@ -4667,25 +4667,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
       <c r="I18" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4697,10 +4697,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4747,7 +4747,7 @@
         <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>320</v>
@@ -4795,7 +4795,7 @@
         <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>320</v>
@@ -4885,7 +4885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D901308F-77A8-4DCD-AB08-8488556D3D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949575C3-CDE0-416A-9A69-421FA5254896}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,10 +5003,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>39773</v>
+        <v>3148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>325</v>
@@ -5015,37 +5015,37 @@
         <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5191</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H4" s="7">
-        <v>38</v>
-      </c>
-      <c r="I4" s="7">
-        <v>26506</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="7">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8338</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M4" s="7">
-        <v>97</v>
-      </c>
-      <c r="N4" s="7">
-        <v>66278</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,49 +5054,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>21072</v>
+        <v>1019</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1021</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13667</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="M5" s="7">
-        <v>56</v>
-      </c>
-      <c r="N5" s="7">
-        <v>34740</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,10 +5105,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5120,10 +5120,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5135,10 +5135,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5164,13 +5164,13 @@
         <v>15472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5179,13 +5179,13 @@
         <v>9569</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5194,13 +5194,13 @@
         <v>25041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5215,13 @@
         <v>6132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5230,13 +5230,13 @@
         <v>9754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -5245,13 +5245,13 @@
         <v>15886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,49 +5313,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>20068</v>
+        <v>39773</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H10" s="7">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26506</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>97</v>
+      </c>
+      <c r="N10" s="7">
+        <v>66278</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="7">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20087</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="M10" s="7">
-        <v>59</v>
-      </c>
-      <c r="N10" s="7">
-        <v>40155</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,49 +5364,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>12359</v>
+        <v>21072</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13667</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>56</v>
+      </c>
+      <c r="N11" s="7">
+        <v>34740</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H11" s="7">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10722</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23082</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,10 +5415,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5430,10 +5430,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5445,10 +5445,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5468,49 +5468,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>3148</v>
+        <v>35182</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="7">
+        <v>49</v>
+      </c>
+      <c r="I13" s="7">
+        <v>41873</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5191</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>95</v>
+      </c>
+      <c r="N13" s="7">
+        <v>77054</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8338</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,40 +5519,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>1019</v>
+        <v>18312</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16022</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1021</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>389</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="N14" s="7">
-        <v>2040</v>
+        <v>34334</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>390</v>
@@ -5570,10 +5570,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5585,10 +5585,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5600,10 +5600,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5623,10 +5623,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>35182</v>
+        <v>20068</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>393</v>
@@ -5638,10 +5638,10 @@
         <v>395</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>41873</v>
+        <v>20087</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>396</v>
@@ -5653,10 +5653,10 @@
         <v>398</v>
       </c>
       <c r="M16" s="7">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>77054</v>
+        <v>40155</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>399</v>
@@ -5674,10 +5674,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>18312</v>
+        <v>12359</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>402</v>
@@ -5689,10 +5689,10 @@
         <v>404</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>16022</v>
+        <v>10722</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>405</v>
@@ -5704,10 +5704,10 @@
         <v>407</v>
       </c>
       <c r="M17" s="7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>34334</v>
+        <v>23082</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>408</v>
@@ -5725,10 +5725,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5740,10 +5740,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5755,10 +5755,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5814,7 +5814,7 @@
         <v>216866</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>417</v>
@@ -5865,7 +5865,7 @@
         <v>110082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>425</v>

--- a/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B30B03C-15CA-45CA-A820-D9BA2CDDDE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97795720-291D-4B6A-9855-25B64895FCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CAA13962-C434-4897-8F6E-F6F601F73240}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8609BD6F-2D33-4741-8495-94068EC974F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="436">
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -71,6 +71,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,1240 +116,1237 @@
     <t>56,31%</t>
   </si>
   <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>75,89%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
     <t>69,87%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>60,96%</t>
   </si>
   <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
     <t>52,72%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
     <t>54,38%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>60,21%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
   </si>
   <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>38,76%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1357,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1426,39 +1453,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1510,7 +1537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1621,13 +1648,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1636,6 +1656,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1700,19 +1727,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE54525-1BA5-422A-ABD4-A4111614F44E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117E3A89-388B-4F19-BD5B-09ACA98321EA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1832,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2167</v>
+        <v>2620</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1844,10 +1891,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>5458</v>
+        <v>4236</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1859,10 +1906,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>7626</v>
+        <v>6855</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1883,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2620</v>
+        <v>2167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1895,10 +1942,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>4236</v>
+        <v>5458</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1910,10 +1957,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>6855</v>
+        <v>7626</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1984,10 +2031,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>16004</v>
+        <v>7883</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1999,10 +2046,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>15074</v>
+        <v>8050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2014,10 +2061,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>31078</v>
+        <v>15933</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2035,10 +2082,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>7883</v>
+        <v>16004</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2050,10 +2097,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>8050</v>
+        <v>15074</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2065,10 +2112,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>15933</v>
+        <v>31078</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2139,10 +2186,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>28859</v>
+        <v>12447</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2154,10 +2201,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>25388</v>
+        <v>16259</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2169,10 +2216,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>54246</v>
+        <v>28706</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2190,10 +2237,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>12447</v>
+        <v>28859</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2205,10 +2252,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>16259</v>
+        <v>25388</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2220,10 +2267,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>28706</v>
+        <v>54246</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2294,10 +2341,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>18517</v>
+        <v>16606</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2309,10 +2356,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>17115</v>
+        <v>8049</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2324,10 +2371,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>35631</v>
+        <v>24655</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2345,10 +2392,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>16606</v>
+        <v>18517</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2360,10 +2407,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>8049</v>
+        <v>17115</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2375,10 +2422,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>24655</v>
+        <v>35631</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2449,10 +2496,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>21109</v>
+        <v>17708</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2464,10 +2511,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>14334</v>
+        <v>11343</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2479,10 +2526,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N16" s="7">
-        <v>35444</v>
+        <v>29050</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2500,10 +2547,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>17708</v>
+        <v>21109</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2515,10 +2562,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>11343</v>
+        <v>14334</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2530,10 +2577,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>29050</v>
+        <v>35444</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2604,10 +2651,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7">
-        <v>86656</v>
+        <v>57263</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2619,10 +2666,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="I19" s="7">
-        <v>77368</v>
+        <v>47937</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -2634,10 +2681,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="N19" s="7">
-        <v>164024</v>
+        <v>105200</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -2655,10 +2702,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7">
-        <v>57263</v>
+        <v>86656</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2670,10 +2717,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="I20" s="7">
-        <v>47937</v>
+        <v>77368</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -2685,10 +2732,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="N20" s="7">
-        <v>105200</v>
+        <v>164024</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2749,6 +2796,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2769,8 +2821,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C348754D-65E6-4959-9EB4-585D9238D8EB}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC9611-3F27-4460-A26E-B1B4A582ED91}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2786,7 +2838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2887,49 +2939,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1915</v>
+        <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2416</v>
+        <v>3818</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>4330</v>
+        <v>4555</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +2990,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>737</v>
+        <v>1915</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3818</v>
+        <v>2416</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>4555</v>
+        <v>4330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,49 +3094,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>26098</v>
+        <v>5674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>20625</v>
+        <v>4587</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>46724</v>
+        <v>10261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,49 +3145,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>5674</v>
+        <v>26098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>4587</v>
+        <v>20625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="N8" s="7">
-        <v>10261</v>
+        <v>46724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,49 +3249,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>35645</v>
+        <v>4675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>36097</v>
+        <v>5407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>71743</v>
+        <v>10081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3300,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>4675</v>
+        <v>35645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
-        <v>5407</v>
+        <v>36097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="N11" s="7">
-        <v>10081</v>
+        <v>71743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,49 +3404,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>33292</v>
+        <v>3309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>26989</v>
+        <v>5975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>60281</v>
+        <v>9284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3455,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>3309</v>
+        <v>33292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>5975</v>
+        <v>26989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N14" s="7">
-        <v>9284</v>
+        <v>60281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,49 +3559,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>39779</v>
+        <v>7450</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>35103</v>
+        <v>6683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>74881</v>
+        <v>14134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,49 +3610,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>7450</v>
+        <v>39779</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>6683</v>
+        <v>35103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N17" s="7">
-        <v>14134</v>
+        <v>74881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,49 +3714,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>136730</v>
+        <v>21844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>121231</v>
+        <v>26470</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
-        <v>369</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>257959</v>
+        <v>48315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,49 +3765,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="D20" s="7">
-        <v>21844</v>
+        <v>136730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="I20" s="7">
-        <v>26470</v>
+        <v>121231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
-        <v>67</v>
+        <v>369</v>
       </c>
       <c r="N20" s="7">
-        <v>48315</v>
+        <v>257959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,6 +3859,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3827,8 +3884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8B2A4-20E7-424C-9F1E-BBDFCD1AA6FF}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D56308-E9BC-49DB-801A-59BE14584558}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3844,7 +3901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3945,49 +4002,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2534</v>
+        <v>976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6479</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>9013</v>
+        <v>976</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +4053,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>976</v>
+        <v>2534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>976</v>
+        <v>9013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,49 +4157,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>18460</v>
+        <v>2207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>16089</v>
+        <v>1791</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>34548</v>
+        <v>3999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,49 +4208,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>2207</v>
+        <v>18460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>1791</v>
+        <v>16089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>3999</v>
+        <v>34548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4312,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>35893</v>
+        <v>5254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>35909</v>
+        <v>6790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>71802</v>
+        <v>12044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4363,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>5254</v>
+        <v>35893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>6790</v>
+        <v>35909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="N11" s="7">
-        <v>12044</v>
+        <v>71802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,49 +4467,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>21261</v>
+        <v>6545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>24589</v>
+        <v>3026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>45849</v>
+        <v>9572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,49 +4518,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>6545</v>
+        <v>21261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>3026</v>
+        <v>24589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>9572</v>
+        <v>45849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,49 +4622,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>28131</v>
+        <v>2015</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>28406</v>
+        <v>4382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>56537</v>
+        <v>6397</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,49 +4673,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>2015</v>
+        <v>28131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>4382</v>
+        <v>28406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="N17" s="7">
-        <v>6397</v>
+        <v>56537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4777,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>106278</v>
+        <v>16998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>111472</v>
+        <v>15989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
-        <v>320</v>
+        <v>51</v>
       </c>
       <c r="N19" s="7">
-        <v>217750</v>
+        <v>32987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,49 +4828,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="D20" s="7">
-        <v>16998</v>
+        <v>106278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="I20" s="7">
-        <v>15989</v>
+        <v>111472</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M20" s="7">
         <v>320</v>
       </c>
-      <c r="M20" s="7">
-        <v>51</v>
-      </c>
       <c r="N20" s="7">
-        <v>32987</v>
+        <v>217750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,6 +4922,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4885,8 +4947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949575C3-CDE0-416A-9A69-421FA5254896}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED43FC86-E7C6-4AC8-BA31-005629CD0F9C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4902,7 +4964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5003,49 +5065,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3148</v>
+        <v>1019</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1021</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5191</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>8338</v>
+        <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,49 +5116,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1019</v>
+        <v>3148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>1021</v>
+        <v>5191</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>2040</v>
+        <v>8338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,49 +5220,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>15472</v>
+        <v>6132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>9569</v>
+        <v>9754</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>25041</v>
+        <v>15886</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,49 +5271,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>6132</v>
+        <v>15472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>9754</v>
+        <v>9569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N8" s="7">
-        <v>15886</v>
+        <v>25041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,49 +5375,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>39773</v>
+        <v>21072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>26506</v>
+        <v>13667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>66278</v>
+        <v>34740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,49 +5426,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>21072</v>
+        <v>39773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>13667</v>
+        <v>26506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N11" s="7">
-        <v>34740</v>
+        <v>66278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,49 +5530,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>35182</v>
+        <v>18312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>41873</v>
+        <v>16022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>77054</v>
+        <v>34334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,49 +5581,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>18312</v>
+        <v>35182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>16022</v>
+        <v>41873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="N14" s="7">
-        <v>34334</v>
+        <v>77054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,49 +5685,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>20068</v>
+        <v>12359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>20087</v>
+        <v>10722</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>40155</v>
+        <v>23082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,49 +5736,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>12359</v>
+        <v>20068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>10722</v>
+        <v>20087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>23082</v>
+        <v>40155</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,49 +5840,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7">
-        <v>113642</v>
+        <v>58895</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>103225</v>
+        <v>51187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="N19" s="7">
-        <v>216866</v>
+        <v>110082</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,49 +5891,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>58895</v>
+        <v>113642</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>51187</v>
+        <v>103225</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="N20" s="7">
-        <v>110082</v>
+        <v>216866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,6 +5985,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97795720-291D-4B6A-9855-25B64895FCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C15B9F-3E57-46C6-8409-99A603A7F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8609BD6F-2D33-4741-8495-94068EC974F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4259E997-AA46-44AC-AAC5-C0CC1391BB35}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="428">
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1237 +77,1213 @@
     <t>54,72%</t>
   </si>
   <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>82,4%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>33,89%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>75,89%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>76,8%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>65,77%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
   </si>
   <si>
     <t>61,89%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>65,2%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>26,1%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>39,89%</t>
@@ -1316,19 +1292,19 @@
     <t>33,67%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>66,85%</t>
@@ -1337,16 +1313,16 @@
     <t>60,11%</t>
   </si>
   <si>
-    <t>73,9%</t>
+    <t>73,8%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117E3A89-388B-4F19-BD5B-09ACA98321EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7A9B8F-330E-4A41-AF59-A049C35669F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2821,7 +2797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC9611-3F27-4460-A26E-B1B4A582ED91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C125D7E-36EB-40BB-87DB-37612002E0C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2975,13 +2951,13 @@
         <v>4555</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2972,7 @@
         <v>1915</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>128</v>
@@ -3011,13 +2987,13 @@
         <v>2416</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3026,13 +3002,13 @@
         <v>4330</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3076,13 @@
         <v>5674</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3115,13 +3091,13 @@
         <v>4587</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3130,13 +3106,13 @@
         <v>10261</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3127,13 @@
         <v>26098</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3166,13 +3142,13 @@
         <v>20625</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -3181,13 +3157,13 @@
         <v>46724</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3231,13 @@
         <v>4675</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3270,13 +3246,13 @@
         <v>5407</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3285,13 +3261,13 @@
         <v>10081</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3282,13 @@
         <v>35645</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -3321,13 +3297,13 @@
         <v>36097</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -3336,13 +3312,13 @@
         <v>71743</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3386,13 @@
         <v>3309</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3425,13 +3401,13 @@
         <v>5975</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3440,13 +3416,13 @@
         <v>9284</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3437,13 @@
         <v>33292</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -3476,13 +3452,13 @@
         <v>26989</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -3491,13 +3467,13 @@
         <v>60281</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3541,13 @@
         <v>7450</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3580,13 +3556,13 @@
         <v>6683</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3595,13 +3571,13 @@
         <v>14134</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3592,13 @@
         <v>39779</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3631,13 +3607,13 @@
         <v>35103</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -3646,13 +3622,13 @@
         <v>74881</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3696,13 @@
         <v>21844</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -3735,13 +3711,13 @@
         <v>26470</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>67</v>
@@ -3750,13 +3726,13 @@
         <v>48315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3747,13 @@
         <v>136730</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -3786,13 +3762,13 @@
         <v>121231</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>369</v>
@@ -3801,13 +3777,13 @@
         <v>257959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D56308-E9BC-49DB-801A-59BE14584558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEDE1C-7634-4F9F-9F54-49F2EA5F3368}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3901,7 +3877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,13 +3984,13 @@
         <v>976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4026,10 +4002,10 @@
         <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4038,13 +4014,13 @@
         <v>976</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,10 +4035,10 @@
         <v>2534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>129</v>
@@ -4077,7 +4053,7 @@
         <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4065,10 @@
         <v>9013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>129</v>
@@ -4163,13 +4139,13 @@
         <v>2207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4178,13 +4154,13 @@
         <v>1791</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4193,13 +4169,13 @@
         <v>3999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4190,13 @@
         <v>18460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4229,13 +4205,13 @@
         <v>16089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -4244,13 +4220,13 @@
         <v>34548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4294,13 @@
         <v>5254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4333,13 +4309,13 @@
         <v>6790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4348,13 +4324,13 @@
         <v>12044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4345,13 @@
         <v>35893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -4384,13 +4360,13 @@
         <v>35909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>111</v>
@@ -4399,13 +4375,13 @@
         <v>71802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4449,13 @@
         <v>6545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4488,13 +4464,13 @@
         <v>3026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4503,13 +4479,13 @@
         <v>9572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4500,13 @@
         <v>21261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -4539,13 +4515,13 @@
         <v>24589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -4554,13 +4530,13 @@
         <v>45849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4604,13 @@
         <v>2015</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4643,13 +4619,13 @@
         <v>4382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4658,13 +4634,13 @@
         <v>6397</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4655,13 @@
         <v>28131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4694,13 +4670,13 @@
         <v>28406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -4709,13 +4685,13 @@
         <v>56537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4759,13 @@
         <v>16998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -4798,13 +4774,13 @@
         <v>15989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4813,13 +4789,13 @@
         <v>32987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4810,13 @@
         <v>106278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -4849,13 +4825,13 @@
         <v>111472</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -4864,13 +4840,13 @@
         <v>217750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED43FC86-E7C6-4AC8-BA31-005629CD0F9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9134FCE3-71E5-4F5E-809D-4245C3DBEB7A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4964,7 +4940,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5071,13 +5047,13 @@
         <v>1019</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5086,13 +5062,13 @@
         <v>1021</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5101,13 +5077,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,10 +5098,10 @@
         <v>3148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>129</v>
@@ -5137,10 +5113,10 @@
         <v>5191</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>129</v>
@@ -5152,13 +5128,13 @@
         <v>8338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5202,13 @@
         <v>6132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5241,13 +5217,13 @@
         <v>9754</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5256,13 +5232,13 @@
         <v>15886</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5253,13 @@
         <v>15472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5292,13 +5268,13 @@
         <v>9569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -5307,13 +5283,13 @@
         <v>25041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5357,13 @@
         <v>21072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5396,13 +5372,13 @@
         <v>13667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -5411,13 +5387,13 @@
         <v>34740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5408,13 @@
         <v>39773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -5447,13 +5423,13 @@
         <v>26506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>97</v>
@@ -5462,13 +5438,13 @@
         <v>66278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5512,13 @@
         <v>18312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5551,13 +5527,13 @@
         <v>16022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -5566,13 +5542,13 @@
         <v>34334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5563,13 @@
         <v>35182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5602,13 +5578,13 @@
         <v>41873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -5617,13 +5593,13 @@
         <v>77054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5667,13 @@
         <v>12359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5706,13 +5682,13 @@
         <v>10722</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5721,13 +5697,13 @@
         <v>23082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5718,13 @@
         <v>20068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -5757,13 +5733,13 @@
         <v>20087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -5772,13 +5748,13 @@
         <v>40155</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5822,13 @@
         <v>58895</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -5861,13 +5837,13 @@
         <v>51187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -5876,13 +5852,13 @@
         <v>110082</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5873,13 @@
         <v>113642</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -5912,13 +5888,13 @@
         <v>103225</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>304</v>
@@ -5927,13 +5903,13 @@
         <v>216866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C15B9F-3E57-46C6-8409-99A603A7F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3944C164-6E16-45C2-8140-ADB7F7DEB344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4259E997-AA46-44AC-AAC5-C0CC1391BB35}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{38B1EDBC-BDF6-4F71-9837-E1258E793018}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Menores según si consumen más de dos medicamentos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,352 +68,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>69,87%</t>
   </si>
   <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>52,72%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
     <t>45,62%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
   </si>
   <si>
     <t>54,38%</t>
   </si>
   <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>60,21%</t>
   </si>
   <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -422,154 +365,121 @@
     <t>Menores según si consumen más de dos medicamentos en 2012 (Tasa respuesta: 20,77%)</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>87,68%</t>
   </si>
   <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>9,04%</t>
@@ -578,751 +488,673 @@
     <t>3,32%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>19,26%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>80,94%</t>
+    <t>80,74%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>7,62%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>Menores según si consumen más de dos medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7A9B8F-330E-4A41-AF59-A049C35669F1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB781E19-23BD-468A-AB9C-29BA99387DC4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1852,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>2620</v>
+        <v>12286</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1867,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>4236</v>
+        <v>10503</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1882,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>6855</v>
+        <v>22789</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1903,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>2167</v>
+        <v>20532</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1918,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>5458</v>
+        <v>18171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1933,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>7626</v>
+        <v>38703</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1954,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1969,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2007,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>7883</v>
+        <v>16259</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2022,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>8050</v>
+        <v>12447</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2037,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>15933</v>
+        <v>28706</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2058,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>16004</v>
+        <v>25388</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2073,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>15074</v>
+        <v>28859</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2088,10 +1920,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="N8" s="7">
-        <v>31078</v>
+        <v>54246</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2109,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2124,10 +1956,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2162,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>12447</v>
+        <v>8049</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2177,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>16259</v>
+        <v>16606</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2192,10 +2024,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>28706</v>
+        <v>24655</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2213,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>28859</v>
+        <v>17115</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2228,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>25388</v>
+        <v>18517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2243,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>54246</v>
+        <v>35631</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2264,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2279,10 +2111,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2126,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2317,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>16606</v>
+        <v>11343</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2332,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>8049</v>
+        <v>17708</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2347,10 +2179,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>24655</v>
+        <v>29050</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2368,10 +2200,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>18517</v>
+        <v>14334</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2383,10 +2215,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>17115</v>
+        <v>21109</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2398,10 +2230,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>35631</v>
+        <v>35444</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2419,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2434,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2281,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2466,55 +2298,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>17708</v>
+        <v>47937</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>84</v>
+      </c>
+      <c r="I16" s="7">
+        <v>57263</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11343</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>156</v>
+      </c>
+      <c r="N16" s="7">
+        <v>105200</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>40</v>
-      </c>
-      <c r="N16" s="7">
-        <v>29050</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,49 +2355,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7">
-        <v>21109</v>
+        <v>77368</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>131</v>
+      </c>
+      <c r="I17" s="7">
+        <v>86656</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14334</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>249</v>
+      </c>
+      <c r="N17" s="7">
+        <v>164024</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>50</v>
-      </c>
-      <c r="N17" s="7">
-        <v>35444</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2589,10 +2421,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2436,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2620,171 +2452,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>84</v>
-      </c>
-      <c r="D19" s="7">
-        <v>57263</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>72</v>
-      </c>
-      <c r="I19" s="7">
-        <v>47937</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>156</v>
-      </c>
-      <c r="N19" s="7">
-        <v>105200</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>131</v>
-      </c>
-      <c r="D20" s="7">
-        <v>86656</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>118</v>
-      </c>
-      <c r="I20" s="7">
-        <v>77368</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>249</v>
-      </c>
-      <c r="N20" s="7">
-        <v>164024</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2797,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C125D7E-36EB-40BB-87DB-37612002E0C2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327DE779-4FFF-4553-83A4-1D5FC7B9F6E3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2814,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2915,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>737</v>
+        <v>8405</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>3818</v>
+        <v>6411</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>4555</v>
+        <v>14816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>1915</v>
+        <v>23041</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>2416</v>
+        <v>28013</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="N5" s="7">
-        <v>4330</v>
+        <v>51054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3032,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2723,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3073,46 +2749,46 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5674</v>
+        <v>5407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4587</v>
+        <v>4675</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>10261</v>
+        <v>10081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,49 +2797,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>26098</v>
+        <v>36097</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I8" s="7">
-        <v>20625</v>
+        <v>35645</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="N8" s="7">
-        <v>46724</v>
+        <v>71743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>31772</v>
+        <v>41504</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3187,10 +2863,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="N9" s="7">
-        <v>56985</v>
+        <v>81824</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3225,49 +2901,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>4675</v>
+        <v>5975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5407</v>
+        <v>3309</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>10081</v>
+        <v>9284</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>35645</v>
+        <v>26989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>36097</v>
+        <v>33292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>71743</v>
+        <v>60281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>40320</v>
+        <v>32964</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3342,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I12" s="7">
-        <v>41504</v>
+        <v>36601</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>81824</v>
+        <v>69565</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3380,49 +3056,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>3309</v>
+        <v>6683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>5975</v>
+        <v>7450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>9284</v>
+        <v>14134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,49 +3107,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>33292</v>
+        <v>35103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>26989</v>
+        <v>39779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>60281</v>
+        <v>74881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>36601</v>
+        <v>41786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3497,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N15" s="7">
-        <v>69565</v>
+        <v>89015</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3529,55 +3205,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>7450</v>
+        <v>26470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>6683</v>
+        <v>21844</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>14134</v>
+        <v>48315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="D17" s="7">
-        <v>39779</v>
+        <v>121231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="I17" s="7">
-        <v>35103</v>
+        <v>136730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="N17" s="7">
-        <v>74881</v>
+        <v>257959</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="D18" s="7">
-        <v>47229</v>
+        <v>147701</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3652,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>41786</v>
+        <v>158574</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>119</v>
+        <v>436</v>
       </c>
       <c r="N18" s="7">
-        <v>89015</v>
+        <v>306274</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3683,171 +3359,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>21844</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26470</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>67</v>
-      </c>
-      <c r="N19" s="7">
-        <v>48315</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>193</v>
-      </c>
-      <c r="D20" s="7">
-        <v>136730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="7">
-        <v>176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>121231</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M20" s="7">
-        <v>369</v>
-      </c>
-      <c r="N20" s="7">
-        <v>257959</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>223</v>
-      </c>
-      <c r="D21" s="7">
-        <v>158574</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>147701</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>436</v>
-      </c>
-      <c r="N21" s="7">
-        <v>306274</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3860,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEDE1C-7634-4F9F-9F54-49F2EA5F3368}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E909AACD-7E4A-4EA8-AAA7-F6AB7E4A5837}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3877,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>976</v>
+        <v>1791</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3183</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>976</v>
+        <v>4975</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +3549,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>2534</v>
+        <v>22568</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>6479</v>
+        <v>20993</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>9013</v>
+        <v>43561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4095,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4133,49 +3653,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>2207</v>
+        <v>6790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>1791</v>
+        <v>5254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>3999</v>
+        <v>12044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +3704,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7">
-        <v>18460</v>
+        <v>35909</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I8" s="7">
-        <v>16089</v>
+        <v>35893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="N8" s="7">
-        <v>34548</v>
+        <v>71802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4250,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4288,49 +3808,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5254</v>
+        <v>3026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>6790</v>
+        <v>6545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>12044</v>
+        <v>9572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,49 +3859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>35893</v>
+        <v>24589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>35909</v>
+        <v>21261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>71802</v>
+        <v>45849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4405,10 +3925,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4443,49 +3963,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>6545</v>
+        <v>4382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>3026</v>
+        <v>2015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>9572</v>
+        <v>6397</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,49 +4014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>21261</v>
+        <v>28406</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>24589</v>
+        <v>28131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7">
-        <v>45849</v>
+        <v>56537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4068,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4560,10 +4080,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4592,55 +4112,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>2015</v>
+        <v>15989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>4382</v>
+        <v>16998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>6397</v>
+        <v>32987</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,49 +4169,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="D17" s="7">
-        <v>28131</v>
+        <v>111472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="I17" s="7">
-        <v>28406</v>
+        <v>106278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="N17" s="7">
-        <v>56537</v>
+        <v>217750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4715,10 +4235,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4250,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N18" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4746,171 +4266,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16998</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15989</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M19" s="7">
-        <v>51</v>
-      </c>
-      <c r="N19" s="7">
-        <v>32987</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>153</v>
-      </c>
-      <c r="D20" s="7">
-        <v>106278</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H20" s="7">
-        <v>167</v>
-      </c>
-      <c r="I20" s="7">
-        <v>111472</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M20" s="7">
-        <v>320</v>
-      </c>
-      <c r="N20" s="7">
-        <v>217750</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>192</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
-      <c r="N21" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4923,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9134FCE3-71E5-4F5E-809D-4245C3DBEB7A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D4B350-9105-489C-8C5D-D42C89D2EDC7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4940,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5041,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>1019</v>
+        <v>10721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>1021</v>
+        <v>7387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>2040</v>
+        <v>18109</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>3148</v>
+        <v>15120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>5191</v>
+        <v>20273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>8338</v>
+        <v>35392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5158,10 +4522,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5196,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>6132</v>
+        <v>13751</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>9754</v>
+        <v>21807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>15886</v>
+        <v>35558</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>15472</v>
+        <v>30491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>9569</v>
+        <v>42002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="N8" s="7">
-        <v>25041</v>
+        <v>72493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5313,10 +4677,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5351,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>21072</v>
+        <v>15648</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>13667</v>
+        <v>19407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>34740</v>
+        <v>35055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>39773</v>
+        <v>61423</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>26506</v>
+        <v>37516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>66278</v>
+        <v>98939</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5468,10 +4832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5506,49 +4870,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>18312</v>
+        <v>10543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>16022</v>
+        <v>12602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>34334</v>
+        <v>23145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>35182</v>
+        <v>20018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>41873</v>
+        <v>21207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="N14" s="7">
-        <v>77054</v>
+        <v>41225</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5623,10 +4987,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +5002,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5655,55 +5019,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>12359</v>
+        <v>50663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>10722</v>
+        <v>61204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="N16" s="7">
-        <v>23082</v>
+        <v>111868</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>20068</v>
+        <v>127052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="I17" s="7">
-        <v>20087</v>
+        <v>120997</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
-        <v>59</v>
+        <v>304</v>
       </c>
       <c r="N17" s="7">
-        <v>40155</v>
+        <v>248048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5778,10 +5142,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5157,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5809,171 +5173,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>90</v>
-      </c>
-      <c r="D19" s="7">
-        <v>58895</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="7">
-        <v>82</v>
-      </c>
-      <c r="I19" s="7">
-        <v>51187</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M19" s="7">
-        <v>172</v>
-      </c>
-      <c r="N19" s="7">
-        <v>110082</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>160</v>
-      </c>
-      <c r="D20" s="7">
-        <v>113642</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="7">
-        <v>144</v>
-      </c>
-      <c r="I20" s="7">
-        <v>103225</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M20" s="7">
-        <v>304</v>
-      </c>
-      <c r="N20" s="7">
-        <v>216866</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
